--- a/data/trans_orig/P38C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0656FCB-E3CD-49A7-B0D9-1205C9C630C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{623D0BA9-49DC-4548-97E1-89FEBB456E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB93B6CC-9C65-477E-88B9-E8038B10B7EF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C57D846B-5B24-460F-8E6E-F8B1302A9B54}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>70,54%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,925 +138,919 @@
     <t>87,67%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>91,86%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>15,89%</t>
   </si>
   <si>
     <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C731A836-CF8D-41AA-96C7-2B4B13FA0B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F7BE5E-F09F-4B93-B99A-699E404E62E7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2063,7 +2057,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -2072,13 +2066,13 @@
         <v>354009</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>650</v>
@@ -2087,13 +2081,13 @@
         <v>693364</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2102,13 @@
         <v>27599</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -2123,13 +2117,13 @@
         <v>32069</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2138,13 +2132,13 @@
         <v>59669</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2206,13 @@
         <v>163266</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -2227,13 +2221,13 @@
         <v>193520</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -2242,13 +2236,13 @@
         <v>356786</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2257,13 @@
         <v>47955</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2278,13 +2272,13 @@
         <v>25067</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -2293,13 +2287,13 @@
         <v>73022</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2361,13 @@
         <v>210344</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -2382,13 +2376,13 @@
         <v>237280</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>433</v>
@@ -2397,13 +2391,13 @@
         <v>447624</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2412,13 @@
         <v>50810</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2433,13 +2427,13 @@
         <v>34089</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2448,13 +2442,13 @@
         <v>84899</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2522,13 +2516,13 @@
         <v>415337</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>462</v>
@@ -2537,13 +2531,13 @@
         <v>503127</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>828</v>
@@ -2552,13 +2546,13 @@
         <v>918462</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>232593</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -2588,13 +2582,13 @@
         <v>181079</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
@@ -2603,13 +2597,13 @@
         <v>413673</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2677,13 +2671,13 @@
         <v>685275</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>706</v>
@@ -2692,13 +2686,13 @@
         <v>776918</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1366</v>
@@ -2707,13 +2701,13 @@
         <v>1462193</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>83604</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -2743,13 +2737,13 @@
         <v>46296</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -2758,13 +2752,13 @@
         <v>129900</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2826,13 @@
         <v>2735922</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2884</v>
@@ -2847,13 +2841,13 @@
         <v>3084708</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>5500</v>
@@ -2862,13 +2856,13 @@
         <v>5820630</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2877,13 @@
         <v>622110</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
@@ -2898,13 +2892,13 @@
         <v>443068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>1021</v>
@@ -2913,13 +2907,13 @@
         <v>1065178</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F486CBD2-C65C-4541-8FCF-B3364C2AD862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D2BC1B-A16A-40ED-B304-12A4EAD23C71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3123,13 +3117,13 @@
         <v>252850</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -3138,13 +3132,13 @@
         <v>267080</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>855</v>
@@ -3153,13 +3147,13 @@
         <v>519929</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3168,13 @@
         <v>7448</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3189,13 +3183,13 @@
         <v>4323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3204,13 +3198,13 @@
         <v>11771</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3272,13 @@
         <v>392758</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>634</v>
@@ -3293,13 +3287,13 @@
         <v>467580</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>949</v>
@@ -3308,13 +3302,13 @@
         <v>860338</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3323,13 @@
         <v>125078</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -3344,13 +3338,13 @@
         <v>86362</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -3359,13 +3353,13 @@
         <v>211439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>302779</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -3448,13 +3442,13 @@
         <v>364398</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>870</v>
@@ -3463,13 +3457,13 @@
         <v>667178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3478,13 @@
         <v>19461</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3499,13 +3493,13 @@
         <v>8886</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -3514,7 +3508,7 @@
         <v>28346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>232</v>
@@ -3731,7 +3725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3773,13 +3767,13 @@
         <v>362973</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3788,13 @@
         <v>36575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3809,13 +3803,13 @@
         <v>28696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3824,13 +3818,13 @@
         <v>65271</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3880,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3898,13 +3892,13 @@
         <v>264904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -3913,13 +3907,13 @@
         <v>267243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>807</v>
@@ -3928,13 +3922,13 @@
         <v>532146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3943,13 @@
         <v>12319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3964,13 +3958,13 @@
         <v>7269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -3979,13 +3973,13 @@
         <v>19589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4053,13 +4047,13 @@
         <v>518930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>882</v>
@@ -4068,13 +4062,13 @@
         <v>739920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>1398</v>
@@ -4083,13 +4077,13 @@
         <v>1258850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>108824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -4119,13 +4113,13 @@
         <v>61103</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
@@ -4134,13 +4128,13 @@
         <v>169927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4208,13 +4202,13 @@
         <v>493451</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
@@ -4223,13 +4217,13 @@
         <v>596068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
@@ -4238,13 +4232,13 @@
         <v>1089519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4253,13 @@
         <v>365977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
@@ -4274,13 +4268,13 @@
         <v>272366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>498</v>
@@ -4289,13 +4283,13 @@
         <v>638343</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4357,13 @@
         <v>2665699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>4839</v>
@@ -4378,13 +4372,13 @@
         <v>3281398</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>7709</v>
@@ -4393,13 +4387,13 @@
         <v>5947097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4408,13 @@
         <v>718067</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -4429,13 +4423,13 @@
         <v>517634</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>1022</v>
@@ -4444,13 +4438,13 @@
         <v>1235701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4500,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623D0BA9-49DC-4548-97E1-89FEBB456E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AF4DB1-6423-4538-85D4-2EF6E80ED37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C57D846B-5B24-460F-8E6E-F8B1302A9B54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CC69343-78C3-4DA9-830E-3B46F317C0C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
   <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>70,54%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,703 +138,703 @@
     <t>87,67%</t>
   </si>
   <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>15,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
   </si>
   <si>
     <t>12,08%</t>
@@ -1462,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F7BE5E-F09F-4B93-B99A-699E404E62E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CBBB4-814C-4FB9-94BE-1678A33EEDC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2057,7 +2057,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -2066,13 +2066,13 @@
         <v>354009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>650</v>
@@ -2081,13 +2081,13 @@
         <v>693364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2102,13 @@
         <v>27599</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -2117,13 +2117,13 @@
         <v>32069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2132,13 +2132,13 @@
         <v>59669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2206,13 +2206,13 @@
         <v>163266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -2221,13 +2221,13 @@
         <v>193520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -2236,13 +2236,13 @@
         <v>356786</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>47955</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2272,13 +2272,13 @@
         <v>25067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -2287,13 +2287,13 @@
         <v>73022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2361,28 +2361,28 @@
         <v>210344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>237280</v>
+        <v>237281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>433</v>
@@ -2391,13 +2391,13 @@
         <v>447624</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2412,13 @@
         <v>50810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2427,13 +2427,13 @@
         <v>34089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2442,13 +2442,13 @@
         <v>84899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271369</v>
+        <v>271370</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2516,13 +2516,13 @@
         <v>415337</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>462</v>
@@ -2531,13 +2531,13 @@
         <v>503127</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>828</v>
@@ -2546,13 +2546,13 @@
         <v>918462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2567,13 @@
         <v>232593</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -2582,13 +2582,13 @@
         <v>181079</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>384</v>
@@ -2597,13 +2597,13 @@
         <v>413673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2671,13 +2671,13 @@
         <v>685275</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>706</v>
@@ -2686,13 +2686,13 @@
         <v>776918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1366</v>
@@ -2701,13 +2701,13 @@
         <v>1462193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2722,13 @@
         <v>83604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -2737,13 +2737,13 @@
         <v>46296</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>128</v>
@@ -2752,13 +2752,13 @@
         <v>129900</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>2735922</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2884</v>
@@ -2841,13 +2841,13 @@
         <v>3084708</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>5500</v>
@@ -2856,13 +2856,13 @@
         <v>5820630</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2877,13 @@
         <v>622110</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>437</v>
@@ -2892,13 +2892,13 @@
         <v>443068</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1021</v>
@@ -2907,13 +2907,13 @@
         <v>1065178</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D2BC1B-A16A-40ED-B304-12A4EAD23C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B05F9C6-75EB-4B9D-B0D8-1FDAA0FDB8B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3117,13 +3117,13 @@
         <v>252850</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -3132,13 +3132,13 @@
         <v>267080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>855</v>
@@ -3147,13 +3147,13 @@
         <v>519929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3168,13 @@
         <v>7448</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3183,13 +3183,13 @@
         <v>4323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -3198,13 +3198,13 @@
         <v>11771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3272,13 @@
         <v>392758</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>634</v>
@@ -3287,13 +3287,13 @@
         <v>467580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>949</v>
@@ -3302,13 +3302,13 @@
         <v>860338</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3323,13 @@
         <v>125078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -3338,13 +3338,13 @@
         <v>86362</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -3353,13 +3353,13 @@
         <v>211439</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3427,13 @@
         <v>302779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -3442,13 +3442,13 @@
         <v>364398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>870</v>
@@ -3457,13 +3457,13 @@
         <v>667178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>19461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3493,13 +3493,13 @@
         <v>8886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -3508,13 +3508,13 @@
         <v>28346</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3618,7 @@
         <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>42386</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -3648,13 +3648,13 @@
         <v>48629</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -3663,13 +3663,13 @@
         <v>91015</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,7 +3725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3737,13 +3737,13 @@
         <v>160173</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -3752,13 +3752,13 @@
         <v>202800</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>683</v>
@@ -3767,13 +3767,13 @@
         <v>362973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3788,13 @@
         <v>36575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3803,13 +3803,13 @@
         <v>28696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3818,7 +3818,7 @@
         <v>65271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>266</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3898,7 +3898,7 @@
         <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -3946,7 +3946,7 @@
         <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>277</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AF4DB1-6423-4538-85D4-2EF6E80ED37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2064B023-CC4F-40EC-A864-679EE4E6A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CC69343-78C3-4DA9-830E-3B46F317C0C5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47DF2C7E-98FA-4EB4-A736-E34E7295AC09}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -69,31 +69,31 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>69,19%</t>
+    <t>69,23%</t>
   </si>
   <si>
     <t>76,8%</t>
@@ -105,19 +105,19 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>26,72%</t>
@@ -126,7 +126,7 @@
     <t>23,2%</t>
   </si>
   <si>
-    <t>30,81%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,919 +138,925 @@
     <t>87,67%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>14,35%</t>
   </si>
   <si>
     <t>57,42%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>42,58%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>86,37%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403CBBB4-814C-4FB9-94BE-1678A33EEDC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363481A-42D0-4CBE-A054-5D94B9F0B170}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2373,7 +2379,7 @@
         <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>237281</v>
+        <v>237280</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2475,7 +2481,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271370</v>
+        <v>271369</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2993,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B05F9C6-75EB-4B9D-B0D8-1FDAA0FDB8B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110045F-BBDD-426B-9468-9B4BAAE8A36C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3457,10 +3463,10 @@
         <v>667178</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>225</v>
@@ -3508,13 +3514,13 @@
         <v>28346</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3624,7 @@
         <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3639,13 @@
         <v>42386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -3648,13 +3654,13 @@
         <v>48629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
@@ -3663,13 +3669,13 @@
         <v>91015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3743,13 @@
         <v>160173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -3752,13 +3758,13 @@
         <v>202800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>683</v>
@@ -3767,13 +3773,13 @@
         <v>362973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3794,13 @@
         <v>36575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3803,13 +3809,13 @@
         <v>28696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3818,13 +3824,13 @@
         <v>65271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3898,13 @@
         <v>264904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -3907,13 +3913,13 @@
         <v>267243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>807</v>
@@ -3922,13 +3928,13 @@
         <v>532146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3949,13 @@
         <v>12319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3958,13 +3964,13 @@
         <v>7269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -3973,13 +3979,13 @@
         <v>19589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>518930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>882</v>
@@ -4062,13 +4068,13 @@
         <v>739920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>1398</v>
@@ -4077,13 +4083,13 @@
         <v>1258850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4104,13 @@
         <v>108824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
@@ -4113,13 +4119,13 @@
         <v>61103</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
@@ -4128,13 +4134,13 @@
         <v>169927</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4208,13 @@
         <v>493451</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
@@ -4217,13 +4223,13 @@
         <v>596068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
@@ -4232,13 +4238,13 @@
         <v>1089519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4259,13 @@
         <v>365977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
@@ -4268,13 +4274,13 @@
         <v>272366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>498</v>
@@ -4283,13 +4289,13 @@
         <v>638343</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4363,13 @@
         <v>2665699</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
         <v>4839</v>
@@ -4372,13 +4378,13 @@
         <v>3281398</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
         <v>7709</v>
@@ -4387,13 +4393,13 @@
         <v>5947097</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4414,13 @@
         <v>718067</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -4423,13 +4429,13 @@
         <v>517634</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M29" s="7">
         <v>1022</v>
@@ -4438,13 +4444,13 @@
         <v>1235701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2064B023-CC4F-40EC-A864-679EE4E6A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65E0B957-A297-4BC0-9896-47C23EA6BF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47DF2C7E-98FA-4EB4-A736-E34E7295AC09}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02D1E8AA-A5EE-4F9C-9A43-46F97FD88B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="338">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -585,478 +585,472 @@
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>86,3%</t>
   </si>
   <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363481A-42D0-4CBE-A054-5D94B9F0B170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974954A4-1A8F-408E-B14B-534F088FB9F9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1753,7 @@
         <v>453</v>
       </c>
       <c r="I7" s="7">
-        <v>491389</v>
+        <v>491390</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1861,7 +1855,7 @@
         <v>482</v>
       </c>
       <c r="I9" s="7">
-        <v>521114</v>
+        <v>521115</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2534,7 +2528,7 @@
         <v>462</v>
       </c>
       <c r="I22" s="7">
-        <v>503127</v>
+        <v>503126</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2636,7 +2630,7 @@
         <v>639</v>
       </c>
       <c r="I24" s="7">
-        <v>684206</v>
+        <v>684205</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2999,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110045F-BBDD-426B-9468-9B4BAAE8A36C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45BB77B-66F4-402C-B993-A0A66FC61F62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3120,7 +3114,7 @@
         <v>324</v>
       </c>
       <c r="D4" s="7">
-        <v>252850</v>
+        <v>301984</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
@@ -3135,7 +3129,7 @@
         <v>531</v>
       </c>
       <c r="I4" s="7">
-        <v>267080</v>
+        <v>284965</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>185</v>
@@ -3150,7 +3144,7 @@
         <v>855</v>
       </c>
       <c r="N4" s="7">
-        <v>519929</v>
+        <v>586948</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>188</v>
@@ -3171,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>7448</v>
+        <v>9459</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>191</v>
@@ -3186,7 +3180,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4323</v>
+        <v>4670</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>194</v>
@@ -3201,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>11771</v>
+        <v>14129</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>197</v>
@@ -3222,7 +3216,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3237,7 +3231,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3252,7 +3246,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3275,7 +3269,7 @@
         <v>315</v>
       </c>
       <c r="D7" s="7">
-        <v>392758</v>
+        <v>383983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>200</v>
@@ -3290,7 +3284,7 @@
         <v>634</v>
       </c>
       <c r="I7" s="7">
-        <v>467580</v>
+        <v>434193</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>203</v>
@@ -3305,7 +3299,7 @@
         <v>949</v>
       </c>
       <c r="N7" s="7">
-        <v>860338</v>
+        <v>818176</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>206</v>
@@ -3326,7 +3320,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="7">
-        <v>125078</v>
+        <v>132911</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>209</v>
@@ -3341,7 +3335,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>86362</v>
+        <v>80210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>212</v>
@@ -3356,7 +3350,7 @@
         <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>211439</v>
+        <v>213121</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>215</v>
@@ -3377,7 +3371,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>517836</v>
+        <v>516894</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3392,7 +3386,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553942</v>
+        <v>514403</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3407,7 +3401,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1071777</v>
+        <v>1031297</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3430,7 +3424,7 @@
         <v>343</v>
       </c>
       <c r="D10" s="7">
-        <v>302779</v>
+        <v>296205</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>218</v>
@@ -3445,7 +3439,7 @@
         <v>527</v>
       </c>
       <c r="I10" s="7">
-        <v>364398</v>
+        <v>340754</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>221</v>
@@ -3460,16 +3454,16 @@
         <v>870</v>
       </c>
       <c r="N10" s="7">
-        <v>667178</v>
+        <v>636959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,46 +3475,46 @@
         <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>19461</v>
+        <v>19845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>8886</v>
+        <v>8374</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>28346</v>
+        <v>28219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3526,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3547,7 +3541,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3562,7 +3556,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3585,46 +3579,46 @@
         <v>260</v>
       </c>
       <c r="D13" s="7">
-        <v>279854</v>
+        <v>268937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>561</v>
       </c>
       <c r="I13" s="7">
-        <v>376310</v>
+        <v>371831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>821</v>
       </c>
       <c r="N13" s="7">
-        <v>656163</v>
+        <v>640768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,46 +3630,46 @@
         <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>42386</v>
+        <v>43620</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>48629</v>
+        <v>100667</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
         <v>69</v>
       </c>
       <c r="N14" s="7">
-        <v>91015</v>
+        <v>144286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,7 +3681,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3702,7 +3696,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>424939</v>
+        <v>472498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3717,7 +3711,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>747178</v>
+        <v>785054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3740,46 +3734,46 @@
         <v>235</v>
       </c>
       <c r="D16" s="7">
-        <v>160173</v>
+        <v>145723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
       </c>
       <c r="I16" s="7">
-        <v>202800</v>
+        <v>183687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>683</v>
       </c>
       <c r="N16" s="7">
-        <v>362973</v>
+        <v>329410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,46 +3785,46 @@
         <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>36575</v>
+        <v>33019</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>28696</v>
+        <v>24587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>65271</v>
+        <v>57606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3836,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3857,7 +3851,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3872,7 +3866,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3895,46 +3889,46 @@
         <v>355</v>
       </c>
       <c r="D19" s="7">
-        <v>264904</v>
+        <v>257149</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
       </c>
       <c r="I19" s="7">
-        <v>267243</v>
+        <v>249192</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>807</v>
       </c>
       <c r="N19" s="7">
-        <v>532146</v>
+        <v>506341</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,46 +3940,46 @@
         <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>12319</v>
+        <v>12487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>7269</v>
+        <v>6771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>19589</v>
+        <v>19258</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +3991,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4012,7 +4006,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274512</v>
+        <v>255963</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4027,7 +4021,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>551735</v>
+        <v>525599</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4050,46 +4044,46 @@
         <v>516</v>
       </c>
       <c r="D22" s="7">
-        <v>518930</v>
+        <v>507850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>882</v>
       </c>
       <c r="I22" s="7">
-        <v>739920</v>
+        <v>789078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>1398</v>
       </c>
       <c r="N22" s="7">
-        <v>1258850</v>
+        <v>1296929</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,46 +4095,46 @@
         <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>108824</v>
+        <v>116429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>74</v>
       </c>
       <c r="I23" s="7">
-        <v>61103</v>
+        <v>57473</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>157</v>
       </c>
       <c r="N23" s="7">
-        <v>169927</v>
+        <v>173901</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4146,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4167,7 +4161,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>801023</v>
+        <v>846551</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4182,7 +4176,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1428777</v>
+        <v>1470830</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4205,46 +4199,46 @@
         <v>522</v>
       </c>
       <c r="D25" s="7">
-        <v>493451</v>
+        <v>420425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
       </c>
       <c r="I25" s="7">
-        <v>596068</v>
+        <v>499939</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
       </c>
       <c r="N25" s="7">
-        <v>1089519</v>
+        <v>920365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,46 +4250,46 @@
         <v>240</v>
       </c>
       <c r="D26" s="7">
-        <v>365977</v>
+        <v>508295</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>258</v>
       </c>
       <c r="I26" s="7">
-        <v>272366</v>
+        <v>217792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>498</v>
       </c>
       <c r="N26" s="7">
-        <v>638343</v>
+        <v>726087</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4301,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4322,7 +4316,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4337,7 +4331,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4360,46 +4354,46 @@
         <v>2870</v>
       </c>
       <c r="D28" s="7">
-        <v>2665699</v>
+        <v>2582257</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>4839</v>
       </c>
       <c r="I28" s="7">
-        <v>3281398</v>
+        <v>3153638</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>7709</v>
       </c>
       <c r="N28" s="7">
-        <v>5947097</v>
+        <v>5735894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,46 +4405,46 @@
         <v>505</v>
       </c>
       <c r="D29" s="7">
-        <v>718067</v>
+        <v>876065</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
       </c>
       <c r="I29" s="7">
-        <v>517634</v>
+        <v>500544</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>1022</v>
       </c>
       <c r="N29" s="7">
-        <v>1235701</v>
+        <v>1376609</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4456,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3383766</v>
+        <v>3458322</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4477,7 +4471,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3799032</v>
+        <v>3654182</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4492,7 +4486,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7182798</v>
+        <v>7112503</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
